--- a/references.xlsx
+++ b/references.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariannarosso/Desktop/Analyses/Side projects/Portfolio/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99F1488-15B9-0B4B-8E14-DD2AF794BC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - references" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - references" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
-  <si>
-    <t>references</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>Item type</t>
   </si>
@@ -59,9 +78,6 @@
   </si>
   <si>
     <t>Journal Article</t>
-  </si>
-  <si>
-    <t>Rosso M,Herrera A,Würbel H,Voelkl B</t>
   </si>
   <si>
     <t>Evidence of HARKing in mouse behavioural tests of anxiety</t>
@@ -81,10 +97,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>http://dx.doi.org/10.1098/rsos.231744</t>
     </r>
@@ -93,12 +110,6 @@
     <t>10.1098/rsos.231744</t>
   </si>
   <si>
-    <t>Zurrer WE,Cannon AE,Ewing E,Rosso M,Reich DS,Ineichen BV</t>
-  </si>
-  <si>
-    <t>Auto-STEED: A data mining tool for automated extraction of experimental parameters and risk of bias items from$\less$i$\greater$in vivo$\less$/i$\greater$publications</t>
-  </si>
-  <si>
     <t>Cold Spring Harbor Laboratory</t>
   </si>
   <si>
@@ -107,10 +118,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://doi.org/10.1101%2F2023.02.24.529867;http://dx.doi.org/10.1101/2023.02.24.529867</t>
     </r>
@@ -119,9 +131,6 @@
     <t>10.1101/2023.02.24.529867</t>
   </si>
   <si>
-    <t>Rosso M,Wirz R,Loretan AV,Sutter NA,Pereira da Cunha CT,Jaric I,Würbel H,Voelkl B</t>
-  </si>
-  <si>
     <t>Reliability of common mouse behavioural tests of anxiety: A systematic review and meta-analysis on the effects of anxiolytics</t>
   </si>
   <si>
@@ -139,10 +148,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>http://dx.doi.org/10.1016/j.neubiorev.2022.104928</t>
     </r>
@@ -151,9 +161,6 @@
     <t>10.1016/j.neubiorev.2022.104928</t>
   </si>
   <si>
-    <t>Novak J,Jaric I,Rosso M,Rufener R,Touma C,Würbel H</t>
-  </si>
-  <si>
     <t>Handling method affects measures of anxiety, but not chronic stress in mice</t>
   </si>
   <si>
@@ -165,10 +172,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://doi.org/10.1038%2Fs41598-022-25090-9;http://dx.doi.org/10.1038/s41598-022-25090-9</t>
     </r>
@@ -177,205 +185,156 @@
     <t>10.1038/s41598-022-25090-9</t>
   </si>
   <si>
-    <t>Evidence for HARKing in mouse behavioural tests of anxiety</t>
+    <t>de Oliveira CL</t>
+  </si>
+  <si>
+    <t>The rearing environment persistently modulates mouse phenotypes from the molecular to the behavioural level</t>
+  </si>
+  <si>
+    <t>PLOS Biology</t>
+  </si>
+  <si>
+    <t>e3001837</t>
+  </si>
+  <si>
+    <t>Public Library of Science (PLoS)</t>
+  </si>
+  <si>
+    <t>2022-10</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
-      <t>https://doi.org/10.1101%2F2022.12.01.518668;http://dx.doi.org/10.1101/2022.12.01.518668</t>
+      <t>https://doi.org/10.1371%2Fjournal.pbio.3001837;http://dx.doi.org/10.1371/journal.pbio.3001837</t>
     </r>
   </si>
   <si>
-    <t>10.1101/2022.12.01.518668</t>
-  </si>
-  <si>
-    <t>Jaric I,Voelkl B,Clerc M,Schmid MW,Novak J,Rosso M,Rufener R,von Kortzfleisch VT,Richter SH,Buettner M,Bleich A,Amrein I,Wolfer DP,Touma C,Sunagawa S,Würbel H</t>
-  </si>
-  <si>
-    <t>de Oliveira CL</t>
-  </si>
-  <si>
-    <t>The rearing environment persistently modulates mouse phenotypes from the molecular to the behavioural level</t>
-  </si>
-  <si>
-    <t>PLOS Biology</t>
-  </si>
-  <si>
-    <t>e3001837</t>
-  </si>
-  <si>
-    <t>Public Library of Science (PLoS)</t>
-  </si>
-  <si>
-    <t>2022-10</t>
+    <t>10.1371/journal.pbio.3001837</t>
+  </si>
+  <si>
+    <t>Siegerink B</t>
+  </si>
+  <si>
+    <t>Do multiple experimenters improve the reproducibility of animal studies?</t>
+  </si>
+  <si>
+    <t>e3001564</t>
+  </si>
+  <si>
+    <t>2022-05</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
-      <t>https://doi.org/10.1371%2Fjournal.pbio.3001837;http://dx.doi.org/10.1371/journal.pbio.3001837</t>
+      <t>https://doi.org/10.1371%2Fjournal.pbio.3001564;http://dx.doi.org/10.1371/journal.pbio.3001564</t>
     </r>
   </si>
   <si>
-    <t>10.1371/journal.pbio.3001837</t>
-  </si>
-  <si>
-    <t>von Kortzfleisch VT,Ambrée O,Karp NA,Meyer N,Novak J,Palme R,Rosso M,Touma C,Würbel H,Kaiser S,Sachser N,Richter SH</t>
-  </si>
-  <si>
-    <t>Siegerink B</t>
-  </si>
-  <si>
-    <t>Do multiple experimenters improve the reproducibility of animal studies?</t>
-  </si>
-  <si>
-    <t>e3001564</t>
-  </si>
-  <si>
-    <t>2022-05</t>
+    <t>10.1371/journal.pbio.3001564</t>
+  </si>
+  <si>
+    <t>Effects of weaning age and housing conditions on phenotypic differences in mice</t>
+  </si>
+  <si>
+    <t>2020-07</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://doi.org/10.1371%2Fjournal.pbio.3001564;http://dx.doi.org/10.1371/journal.pbio.3001564</t>
-    </r>
-  </si>
-  <si>
-    <t>10.1371/journal.pbio.3001564</t>
-  </si>
-  <si>
-    <t>Jaric I,Voelkl B,Clerc M,Schmid MW,Novak J,Rosso M,Rufener R,von Kortzfleisch V,Richter HS,Buettner M,Bleich A,Amrein I,Wolfer DP,Touma C,Sunagawa S,Wuerbel H</t>
-  </si>
-  <si>
-    <t>Rearing environment persistently modulates the phenotype of mice</t>
-  </si>
-  <si>
-    <t>2022-02</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://doi.org/10.1101%2F2022.02.11.480070;http://dx.doi.org/10.1101/2022.02.11.480070</t>
-    </r>
-  </si>
-  <si>
-    <t>10.1101/2022.02.11.480070</t>
-  </si>
-  <si>
-    <t>Reliability of Mouse Behavioural Tests of Anxiety: a Systematic Review and Meta-Analysis on the Effects of Anxiolytics</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>http://dx.doi.org/10.1101/2021.07.28.454267</t>
-    </r>
-  </si>
-  <si>
-    <t>10.1101/2021.07.28.454267</t>
-  </si>
-  <si>
-    <t>Bailoo JD,Voelkl B,Varholick J,Novak J,Murphy E,Rosso M,Palme R,Würbel H</t>
-  </si>
-  <si>
-    <t>Effects of weaning age and housing conditions on phenotypic differences in mice</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://doi.org/10.1038%2Fs41598-020-68549-3;http://dx.doi.org/10.1038/s41598-020-68549-3</t>
     </r>
   </si>
   <si>
     <t>10.1038/s41598-020-68549-3</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>bioRxiv</t>
+  </si>
+  <si>
+    <t>Auto-STEED: A data mining tool for automated extraction of experimental parameters and risk of bias items from in vivo publications</t>
+  </si>
+  <si>
+    <t>**Rosso M**, Herrera A, Würbel H, Voelkl B</t>
+  </si>
+  <si>
+    <t>Zurrer WE, Cannon AE, Ewing E, **Rosso M**, Reich DS, Ineichen BV</t>
+  </si>
+  <si>
+    <t>**Rosso M**, Wirz R, Loretan AV, Sutter NA, Pereira da Cunha CT, Jaric I, Würbel H, Voelkl B</t>
+  </si>
+  <si>
+    <t>Novak J, Jaric I, **Rosso M**, Rufener R, Touma C, Würbel H</t>
+  </si>
+  <si>
+    <t>Jaric I, Voelkl B, Clerc M, Schmid MW, Novak J, **Rosso M**, Rufener R, von Kortzfleisch VT, Richter SH, Buettner M, Bleich A, Amrein I, Wolfer DP, Touma C, Sunagawa S, Würbel H</t>
+  </si>
+  <si>
+    <t>von Kortzfleisch VT, Ambrée O, Karp NA, Meyer N, Novak J, Palme R, **Rosso M**, Touma C, Würbel H, Kaiser S, Sachser N, Richter SH</t>
+  </si>
+  <si>
+    <t>Bailoo JD, Voelkl B, Varholick J, Novak J, Murphy E, **Rosso M**, Palme R, Würbel H</t>
+  </si>
+  <si>
+    <t>" target="_blank"&gt;DOI&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;a href="</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -385,157 +344,34 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,26 +381,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -763,7 +658,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -781,7 +676,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -810,7 +705,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -835,7 +730,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -860,7 +755,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -885,7 +780,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -910,7 +805,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -935,7 +830,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -960,7 +855,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -985,7 +880,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1010,7 +905,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1023,9 +918,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1042,7 +943,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1060,7 +961,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,7 +986,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,7 +1011,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1135,7 +1036,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,7 +1061,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1185,7 +1086,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1210,7 +1111,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1235,7 +1136,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1260,7 +1161,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1285,7 +1186,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1298,9 +1199,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1314,7 +1221,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1332,7 +1239,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1361,7 +1268,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1386,7 +1293,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1411,7 +1318,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1436,7 +1343,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1461,7 +1368,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1486,7 +1393,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1511,7 +1418,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1536,7 +1443,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1561,7 +1468,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1574,492 +1481,492 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N12"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.1719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="126.852" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="126.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="126.352" style="1" customWidth="1"/>
+    <col min="4" max="4" width="126.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.35156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.67188" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.3516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="73.3516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.3516" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="13" max="13" width="73.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16" width="26.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" style="1"/>
+    <col min="19" max="19" width="250.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G2" s="1">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="1" t="str">
+        <f>_xlfn.CONCAT(B2," (",F2,") ",R2, D2,".",R2," *",E2,"*",O2,M2,P2)</f>
+        <v>**Rosso M**, Herrera A, Würbel H, Voelkl B (2024) "Evidence of HARKing in mouse behavioural tests of anxiety." *Royal Society Open Science* &lt;a href="http://dx.doi.org/10.1098/rsos.231744" target="_blank"&gt;DOI&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="1" t="str">
+        <f t="shared" ref="S3:S14" si="0">_xlfn.CONCAT(B4," (",F4,") ",R4, D4,".",R4," *",E4,"*",O4,M4,P4)</f>
+        <v>Zurrer WE, Cannon AE, Ewing E, **Rosso M**, Reich DS, Ineichen BV (2023) "Auto-STEED: A data mining tool for automated extraction of experimental parameters and risk of bias items from in vivo publications." *bioRxiv* &lt;a href="https://doi.org/10.1101%2F2023.02.24.529867;http://dx.doi.org/10.1101/2023.02.24.529867" target="_blank"&gt;DOI&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G6" s="1">
+        <v>143</v>
+      </c>
+      <c r="I6" s="1">
+        <v>104928</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>**Rosso M**, Wirz R, Loretan AV, Sutter NA, Pereira da Cunha CT, Jaric I, Würbel H, Voelkl B (2022) "Reliability of common mouse behavioural tests of anxiety: A systematic review and meta-analysis on the effects of anxiolytics." *Neuroscience &amp; Biobehavioral Reviews* &lt;a href="http://dx.doi.org/10.1016/j.neubiorev.2022.104928" target="_blank"&gt;DOI&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G8" s="1">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="3">
+      <c r="J8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Novak J, Jaric I, **Rosso M**, Rufener R, Touma C, Würbel H (2022) "Handling method affects measures of anxiety, but not chronic stress in mice." *Scientific Reports* &lt;a href="https://doi.org/10.1038%2Fs41598-022-25090-9;http://dx.doi.org/10.1038/s41598-022-25090-9" target="_blank"&gt;DOI&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G10" s="1">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Jaric I, Voelkl B, Clerc M, Schmid MW, Novak J, **Rosso M**, Rufener R, von Kortzfleisch VT, Richter SH, Buettner M, Bleich A, Amrein I, Wolfer DP, Touma C, Sunagawa S, Würbel H (2022) "The rearing environment persistently modulates mouse phenotypes from the molecular to the behavioural level." *PLOS Biology* &lt;a href="https://doi.org/10.1371%2Fjournal.pbio.3001837;http://dx.doi.org/10.1371/journal.pbio.3001837" target="_blank"&gt;DOI&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G12" s="1">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s" s="3">
+      <c r="I12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>von Kortzfleisch VT, Ambrée O, Karp NA, Meyer N, Novak J, Palme R, **Rosso M**, Touma C, Würbel H, Kaiser S, Sachser N, Richter SH (2022) "Do multiple experimenters improve the reproducibility of animal studies?." *PLOS Biology* &lt;a href="https://doi.org/10.1371%2Fjournal.pbio.3001564;http://dx.doi.org/10.1371/journal.pbio.3001564" target="_blank"&gt;DOI&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G14" s="1">
         <v>10</v>
       </c>
-      <c r="K2" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="N2" t="s" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" t="s" s="7">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="F3" s="8">
-        <v>2024</v>
-      </c>
-      <c r="G3" s="8">
-        <v>11</v>
-      </c>
-      <c r="H3" s="8">
-        <v>8</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="N3" t="s" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="13">
-        <v>2023</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="L4" s="11"/>
-      <c r="M4" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="N4" t="s" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F5" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G5" s="13">
-        <v>143</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="13">
-        <v>104928</v>
-      </c>
-      <c r="J5" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s" s="12">
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M5" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="N5" t="s" s="12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="F6" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G6" s="13">
-        <v>12</v>
-      </c>
-      <c r="H6" s="13">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="N6" t="s" s="12">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" t="s" s="12">
-        <v>44</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="K7" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="N7" t="s" s="12">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s" s="12">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s" s="12">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="F8" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G8" s="13">
-        <v>20</v>
-      </c>
-      <c r="H8" s="13">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="J8" t="s" s="12">
-        <v>52</v>
-      </c>
-      <c r="K8" t="s" s="12">
+      <c r="K14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" t="s" s="12">
+      <c r="M14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N8" t="s" s="12">
+      <c r="N14" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s" s="10">
+      <c r="O14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C9" t="s" s="12">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s" s="12">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="F9" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G9" s="13">
-        <v>20</v>
-      </c>
-      <c r="H9" s="13">
-        <v>5</v>
-      </c>
-      <c r="I9" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="J9" t="s" s="12">
-        <v>52</v>
-      </c>
-      <c r="K9" t="s" s="12">
-        <v>60</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" t="s" s="12">
-        <v>61</v>
-      </c>
-      <c r="N9" t="s" s="12">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" t="s" s="12">
-        <v>64</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13">
-        <v>2022</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="K10" t="s" s="12">
-        <v>65</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" t="s" s="12">
-        <v>66</v>
-      </c>
-      <c r="N10" t="s" s="12">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="13">
-        <v>2021</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="K11" t="s" s="12">
-        <v>69</v>
-      </c>
-      <c r="L11" s="11"/>
-      <c r="M11" t="s" s="12">
-        <v>70</v>
-      </c>
-      <c r="N11" t="s" s="12">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s" s="10">
-        <v>72</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" t="s" s="12">
-        <v>73</v>
-      </c>
-      <c r="E12" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="F12" s="13">
-        <v>2020</v>
-      </c>
-      <c r="G12" s="13">
-        <v>10</v>
-      </c>
-      <c r="H12" s="13">
-        <v>1</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="K12" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" t="s" s="12">
-        <v>75</v>
-      </c>
-      <c r="N12" t="s" s="12">
-        <v>76</v>
+      <c r="S14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Bailoo JD, Voelkl B, Varholick J, Novak J, Murphy E, **Rosso M**, Palme R, Würbel H (2020) "Effects of weaning age and housing conditions on phenotypic differences in mice." *Scientific Reports* &lt;a href="https://doi.org/10.1038%2Fs41598-020-68549-3;http://dx.doi.org/10.1038/s41598-020-68549-3" target="_blank"&gt;DOI&lt;/a&gt;</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1" location="" tooltip="" display="http://dx.doi.org/10.1098/rsos.231744"/>
-    <hyperlink ref="M4" r:id="rId2" location="" tooltip="" display="https://doi.org/10.1101%2F2023.02.24.529867;http://dx.doi.org/10.1101/2023.02.24.529867"/>
-    <hyperlink ref="M5" r:id="rId3" location="" tooltip="" display="http://dx.doi.org/10.1016/j.neubiorev.2022.104928"/>
-    <hyperlink ref="M6" r:id="rId4" location="" tooltip="" display="https://doi.org/10.1038%2Fs41598-022-25090-9;http://dx.doi.org/10.1038/s41598-022-25090-9"/>
-    <hyperlink ref="M7" r:id="rId5" location="" tooltip="" display="https://doi.org/10.1101%2F2022.12.01.518668;http://dx.doi.org/10.1101/2022.12.01.518668"/>
-    <hyperlink ref="M8" r:id="rId6" location="" tooltip="" display="https://doi.org/10.1371%2Fjournal.pbio.3001837;http://dx.doi.org/10.1371/journal.pbio.3001837"/>
-    <hyperlink ref="M9" r:id="rId7" location="" tooltip="" display="https://doi.org/10.1371%2Fjournal.pbio.3001564;http://dx.doi.org/10.1371/journal.pbio.3001564"/>
-    <hyperlink ref="M10" r:id="rId8" location="" tooltip="" display="https://doi.org/10.1101%2F2022.02.11.480070;http://dx.doi.org/10.1101/2022.02.11.480070"/>
-    <hyperlink ref="M11" r:id="rId9" location="" tooltip="" display="http://dx.doi.org/10.1101/2021.07.28.454267"/>
-    <hyperlink ref="M12" r:id="rId10" location="" tooltip="" display="https://doi.org/10.1038%2Fs41598-020-68549-3;http://dx.doi.org/10.1038/s41598-020-68549-3"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
